--- a/Messungen/20160627_Feuchtesensormessungen.xlsx
+++ b/Messungen/20160627_Feuchtesensormessungen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="12915" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="14505" yWindow="-15" windowWidth="14310" windowHeight="12855" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="feuchte2" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="682">
   <si>
     <t>Zeit [abs]</t>
   </si>
@@ -1920,14 +1920,156 @@
   </si>
   <si>
     <t>27.06.2016, 16:29:21,936</t>
+  </si>
+  <si>
+    <t>P__amb</t>
+  </si>
+  <si>
+    <t>EFw</t>
+  </si>
+  <si>
+    <t>aw</t>
+  </si>
+  <si>
+    <t>bw</t>
+  </si>
+  <si>
+    <t>cw</t>
+  </si>
+  <si>
+    <t>dw</t>
+  </si>
+  <si>
+    <t>f1wDP</t>
+  </si>
+  <si>
+    <t>f1wT</t>
+  </si>
+  <si>
+    <t>RH</t>
+  </si>
+  <si>
+    <t>RH aus DP</t>
+  </si>
+  <si>
+    <t>V_supply</t>
+  </si>
+  <si>
+    <t>V_OUT_AUL</t>
+  </si>
+  <si>
+    <t>V_OUT_ZUL</t>
+  </si>
+  <si>
+    <t>V_OUT_ABL</t>
+  </si>
+  <si>
+    <t>V_OUT_FOL</t>
+  </si>
+  <si>
+    <t>PHI_AUL_korr</t>
+  </si>
+  <si>
+    <t>PHI_ZUL_korr</t>
+  </si>
+  <si>
+    <t>PHI_ABL_korr</t>
+  </si>
+  <si>
+    <t>PHI_FOL_korr</t>
+  </si>
+  <si>
+    <t>Phi aus Spannung</t>
+  </si>
+  <si>
+    <t>delta_PHI_AUL</t>
+  </si>
+  <si>
+    <t>delta_PHI_ZUL</t>
+  </si>
+  <si>
+    <t>delta_PHI_ABL</t>
+  </si>
+  <si>
+    <t>delta_PHI_FOL</t>
+  </si>
+  <si>
+    <t>DP [°C]</t>
+  </si>
+  <si>
+    <t>Temp[°C]</t>
+  </si>
+  <si>
+    <t>Phi_Mittel_AUL</t>
+  </si>
+  <si>
+    <t>Phi_Mittel_ZUL</t>
+  </si>
+  <si>
+    <t>Phi_Mittel_ABL</t>
+  </si>
+  <si>
+    <t>Phi_Mittel_FOL</t>
+  </si>
+  <si>
+    <t>23.06.2016, 13:05:54,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 13:12:44,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 13:19:49,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 13:31:49,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 13:39:04,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 13:48:59,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 13:58:19,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 14:13:24,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 14:20:54,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 14:35:29,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 14:54:49,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 15:41:39,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 15:49:09,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 16:31:18,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 16:55:49,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 17:01:29,654</t>
+  </si>
+  <si>
+    <t>23.06.2016, 17:21:29,653</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2425,7 +2567,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2433,6 +2575,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2777,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T623"/>
   <sheetViews>
-    <sheetView topLeftCell="A588" workbookViewId="0">
-      <selection activeCell="A613" sqref="A613"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3842,7 +3990,7 @@
       </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -3863,7 +4011,7 @@
       </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -3884,7 +4032,7 @@
       </c>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -3905,7 +4053,7 @@
       </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -3926,7 +4074,7 @@
       </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -3947,7 +4095,7 @@
       </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -3968,7 +4116,7 @@
       </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -3989,7 +4137,7 @@
       </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -4028,7 +4176,7 @@
         <v>1.7546666666666666</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -4048,11 +4196,8 @@
         <v>1755</v>
       </c>
       <c r="H57" s="3"/>
-      <c r="M57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -4072,11 +4217,8 @@
         <v>1755</v>
       </c>
       <c r="H58" s="3"/>
-      <c r="M58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -4096,11 +4238,8 @@
         <v>1752</v>
       </c>
       <c r="H59" s="3"/>
-      <c r="M59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -4120,11 +4259,8 @@
         <v>1756</v>
       </c>
       <c r="H60" s="3"/>
-      <c r="M60" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -4145,7 +4281,7 @@
       </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -4166,7 +4302,7 @@
       </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -4187,7 +4323,7 @@
       </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -10890,20 +11026,20 @@
         <v>607</v>
       </c>
       <c r="H371" s="4">
-        <f>SUM(C361:C379)/21000</f>
-        <v>1.3204285714285715</v>
-      </c>
-      <c r="I371" s="2">
-        <f>SUM(D361:D379)/21000</f>
-        <v>1.3148571428571429</v>
-      </c>
-      <c r="J371" s="2">
-        <f>SUM(E361:E379)/21000</f>
-        <v>1.3161428571428571</v>
-      </c>
-      <c r="K371" s="2">
-        <f>SUM(F361:F379)/21000</f>
-        <v>1.3081904761904761</v>
+        <f>SUM(C361:C381)/21000</f>
+        <v>1.4595714285714285</v>
+      </c>
+      <c r="I371" s="4">
+        <f t="shared" ref="I371:K371" si="49">SUM(D361:D381)/21000</f>
+        <v>1.4532380952380952</v>
+      </c>
+      <c r="J371" s="4">
+        <f t="shared" si="49"/>
+        <v>1.4542380952380953</v>
+      </c>
+      <c r="K371" s="4">
+        <f t="shared" si="49"/>
+        <v>1.4456666666666667</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
@@ -11353,15 +11489,15 @@
         <v>1.4468095238095238</v>
       </c>
       <c r="I392" s="2">
-        <f t="shared" ref="I392" si="49">SUM(D382:D402)/21000</f>
+        <f t="shared" ref="I392" si="50">SUM(D382:D402)/21000</f>
         <v>1.4238571428571429</v>
       </c>
       <c r="J392" s="2">
-        <f t="shared" ref="J392" si="50">SUM(E382:E402)/21000</f>
+        <f t="shared" ref="J392" si="51">SUM(E382:E402)/21000</f>
         <v>1.4341428571428572</v>
       </c>
       <c r="K392" s="2">
-        <f t="shared" ref="K392" si="51">SUM(F382:F402)/21000</f>
+        <f t="shared" ref="K392" si="52">SUM(F382:F402)/21000</f>
         <v>1.4219523809523809</v>
       </c>
     </row>
@@ -11845,15 +11981,15 @@
         <v>1.4393333333333334</v>
       </c>
       <c r="I413" s="2">
-        <f t="shared" ref="I413" si="52">SUM(D403:D423)/21000</f>
+        <f t="shared" ref="I413" si="53">SUM(D403:D423)/21000</f>
         <v>1.4195714285714285</v>
       </c>
       <c r="J413" s="2">
-        <f t="shared" ref="J413" si="53">SUM(E403:E423)/21000</f>
+        <f t="shared" ref="J413" si="54">SUM(E403:E423)/21000</f>
         <v>1.430047619047619</v>
       </c>
       <c r="K413" s="2">
-        <f t="shared" ref="K413" si="54">SUM(F403:F423)/21000</f>
+        <f t="shared" ref="K413" si="55">SUM(F403:F423)/21000</f>
         <v>1.419</v>
       </c>
       <c r="N413" t="s">
@@ -12337,15 +12473,15 @@
         <v>1.4270476190476191</v>
       </c>
       <c r="I434" s="2">
-        <f t="shared" ref="I434" si="55">SUM(D424:D444)/21000</f>
+        <f t="shared" ref="I434" si="56">SUM(D424:D444)/21000</f>
         <v>1.413142857142857</v>
       </c>
       <c r="J434" s="2">
-        <f t="shared" ref="J434" si="56">SUM(E424:E444)/21000</f>
+        <f t="shared" ref="J434" si="57">SUM(E424:E444)/21000</f>
         <v>1.4217619047619048</v>
       </c>
       <c r="K434" s="2">
-        <f t="shared" ref="K434" si="57">SUM(F424:F444)/21000</f>
+        <f t="shared" ref="K434" si="58">SUM(F424:F444)/21000</f>
         <v>1.4042857142857144</v>
       </c>
     </row>
@@ -12796,15 +12932,15 @@
         <v>1.4269047619047619</v>
       </c>
       <c r="I455" s="2">
-        <f t="shared" ref="I455" si="58">SUM(D445:D465)/21000</f>
+        <f t="shared" ref="I455" si="59">SUM(D445:D465)/21000</f>
         <v>1.4094285714285715</v>
       </c>
       <c r="J455" s="2">
-        <f t="shared" ref="J455" si="59">SUM(E445:E465)/21000</f>
+        <f t="shared" ref="J455" si="60">SUM(E445:E465)/21000</f>
         <v>1.4184285714285714</v>
       </c>
       <c r="K455" s="2">
-        <f t="shared" ref="K455" si="60">SUM(F445:F465)/21000</f>
+        <f t="shared" ref="K455" si="61">SUM(F445:F465)/21000</f>
         <v>1.407</v>
       </c>
     </row>
@@ -13255,15 +13391,15 @@
         <v>1.4236666666666666</v>
       </c>
       <c r="I476" s="2">
-        <f t="shared" ref="I476" si="61">SUM(D466:D486)/21000</f>
+        <f t="shared" ref="I476" si="62">SUM(D466:D486)/21000</f>
         <v>1.4034761904761905</v>
       </c>
       <c r="J476" s="2">
-        <f t="shared" ref="J476" si="62">SUM(E466:E486)/21000</f>
+        <f t="shared" ref="J476" si="63">SUM(E466:E486)/21000</f>
         <v>1.4123809523809523</v>
       </c>
       <c r="K476" s="2">
-        <f t="shared" ref="K476" si="63">SUM(F466:F486)/21000</f>
+        <f t="shared" ref="K476" si="64">SUM(F466:F486)/21000</f>
         <v>1.4031904761904761</v>
       </c>
     </row>
@@ -13714,15 +13850,15 @@
         <v>1.42</v>
       </c>
       <c r="I497" s="2">
-        <f t="shared" ref="I497" si="64">SUM(D487:D507)/21000</f>
+        <f t="shared" ref="I497" si="65">SUM(D487:D507)/21000</f>
         <v>1.3956666666666666</v>
       </c>
       <c r="J497" s="2">
-        <f t="shared" ref="J497" si="65">SUM(E487:E507)/21000</f>
+        <f t="shared" ref="J497" si="66">SUM(E487:E507)/21000</f>
         <v>1.4009047619047619</v>
       </c>
       <c r="K497" s="2">
-        <f t="shared" ref="K497" si="66">SUM(F487:F507)/21000</f>
+        <f t="shared" ref="K497" si="67">SUM(F487:F507)/21000</f>
         <v>1.4013809523809524</v>
       </c>
     </row>
@@ -14173,15 +14309,15 @@
         <v>1.4217142857142857</v>
       </c>
       <c r="I518" s="2">
-        <f t="shared" ref="I518" si="67">SUM(D508:D528)/21000</f>
+        <f t="shared" ref="I518" si="68">SUM(D508:D528)/21000</f>
         <v>1.3908095238095237</v>
       </c>
       <c r="J518" s="2">
-        <f t="shared" ref="J518" si="68">SUM(E508:E528)/21000</f>
+        <f t="shared" ref="J518" si="69">SUM(E508:E528)/21000</f>
         <v>1.4010476190476191</v>
       </c>
       <c r="K518" s="2">
-        <f t="shared" ref="K518" si="69">SUM(F508:F528)/21000</f>
+        <f t="shared" ref="K518" si="70">SUM(F508:F528)/21000</f>
         <v>1.4025714285714286</v>
       </c>
     </row>
@@ -14632,15 +14768,15 @@
         <v>1.4035238095238096</v>
       </c>
       <c r="I539" s="2">
-        <f t="shared" ref="I539" si="70">SUM(D529:D549)/21000</f>
+        <f t="shared" ref="I539" si="71">SUM(D529:D549)/21000</f>
         <v>1.3718095238095238</v>
       </c>
       <c r="J539" s="2">
-        <f t="shared" ref="J539" si="71">SUM(E529:E549)/21000</f>
+        <f t="shared" ref="J539" si="72">SUM(E529:E549)/21000</f>
         <v>1.3862857142857143</v>
       </c>
       <c r="K539" s="2">
-        <f t="shared" ref="K539" si="72">SUM(F529:F549)/21000</f>
+        <f t="shared" ref="K539" si="73">SUM(F529:F549)/21000</f>
         <v>1.3893333333333333</v>
       </c>
     </row>
@@ -15091,15 +15227,15 @@
         <v>1.4</v>
       </c>
       <c r="I560" s="2">
-        <f t="shared" ref="I560" si="73">SUM(D550:D570)/21000</f>
+        <f t="shared" ref="I560" si="74">SUM(D550:D570)/21000</f>
         <v>1.3692380952380951</v>
       </c>
       <c r="J560" s="2">
-        <f t="shared" ref="J560" si="74">SUM(E550:E570)/21000</f>
+        <f t="shared" ref="J560" si="75">SUM(E550:E570)/21000</f>
         <v>1.383952380952381</v>
       </c>
       <c r="K560" s="2">
-        <f t="shared" ref="K560" si="75">SUM(F550:F570)/21000</f>
+        <f t="shared" ref="K560" si="76">SUM(F550:F570)/21000</f>
         <v>1.3854285714285715</v>
       </c>
     </row>
@@ -15550,15 +15686,15 @@
         <v>1.3935238095238096</v>
       </c>
       <c r="I581" s="2">
-        <f t="shared" ref="I581" si="76">SUM(D571:D591)/21000</f>
+        <f t="shared" ref="I581" si="77">SUM(D571:D591)/21000</f>
         <v>1.3622380952380952</v>
       </c>
       <c r="J581" s="2">
-        <f t="shared" ref="J581" si="77">SUM(E571:E591)/21000</f>
+        <f t="shared" ref="J581" si="78">SUM(E571:E591)/21000</f>
         <v>1.3721428571428571</v>
       </c>
       <c r="K581" s="2">
-        <f t="shared" ref="K581" si="78">SUM(F571:F591)/21000</f>
+        <f t="shared" ref="K581" si="79">SUM(F571:F591)/21000</f>
         <v>1.378095238095238</v>
       </c>
     </row>
@@ -15918,15 +16054,15 @@
         <v>1.3879999999999999</v>
       </c>
       <c r="I598" s="2">
-        <f t="shared" ref="I598:K598" si="79">SUM(D588:D602)/15000</f>
+        <f t="shared" ref="I598:K598" si="80">SUM(D588:D602)/15000</f>
         <v>1.3663333333333334</v>
       </c>
       <c r="J598" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.3722000000000001</v>
       </c>
       <c r="K598" s="2">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1.3733333333333333</v>
       </c>
     </row>
@@ -16284,15 +16420,15 @@
         <v>1.414047619047619</v>
       </c>
       <c r="I613" s="2">
-        <f t="shared" ref="I613" si="80">SUM(D603:D623)/21000</f>
+        <f t="shared" ref="I613" si="81">SUM(D603:D623)/21000</f>
         <v>1.3832857142857142</v>
       </c>
       <c r="J613" s="2">
-        <f t="shared" ref="J613" si="81">SUM(E603:E623)/21000</f>
+        <f t="shared" ref="J613" si="82">SUM(E603:E623)/21000</f>
         <v>1.3947619047619049</v>
       </c>
       <c r="K613" s="2">
-        <f t="shared" ref="K613" si="82">SUM(F603:F623)/21000</f>
+        <f t="shared" ref="K613" si="83">SUM(F603:F623)/21000</f>
         <v>1.3956666666666666</v>
       </c>
       <c r="P613" s="1"/>
@@ -16558,10 +16694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:AI61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="V54" sqref="V54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16569,18 +16705,18 @@
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>608</v>
+        <v>646</v>
       </c>
       <c r="C1" t="s">
-        <v>609</v>
+        <v>647</v>
       </c>
       <c r="D1" t="s">
-        <v>610</v>
+        <v>648</v>
       </c>
       <c r="E1" t="s">
-        <v>611</v>
+        <v>649</v>
       </c>
       <c r="F1" t="s">
         <v>612</v>
@@ -16588,8 +16724,106 @@
       <c r="G1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="O1" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="AF1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AG1">
+        <v>99405</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>637</v>
+      </c>
+      <c r="AI1">
+        <v>6.1120999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH2" t="s">
+        <v>638</v>
+      </c>
+      <c r="AI2">
+        <v>18.678000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>636</v>
+      </c>
+      <c r="K3" t="s">
+        <v>641</v>
+      </c>
+      <c r="L3" t="s">
+        <v>642</v>
+      </c>
+      <c r="M3" t="s">
+        <v>643</v>
+      </c>
+      <c r="O3" t="s">
+        <v>608</v>
+      </c>
+      <c r="P3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>610</v>
+      </c>
+      <c r="R3" t="s">
+        <v>611</v>
+      </c>
+      <c r="T3" t="s">
+        <v>645</v>
+      </c>
+      <c r="V3" t="s">
+        <v>650</v>
+      </c>
+      <c r="W3" t="s">
+        <v>651</v>
+      </c>
+      <c r="X3" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>653</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>656</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>657</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>658</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>639</v>
+      </c>
+      <c r="AI3">
+        <v>257.14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -16611,8 +16845,81 @@
       <c r="G4">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F4^2))</f>
+        <v>1.3586764597578549</v>
+      </c>
+      <c r="K4">
+        <f xml:space="preserve"> J4 * AI$1 * EXP((AI$2 - G4/AI$4) * G4/(G4 + AI$3))</f>
+        <v>17.715550175693696</v>
+      </c>
+      <c r="L4">
+        <f xml:space="preserve"> J4 * AI$1 * EXP((AI$2 - F4/AI$4) * F4/(F4 + AI$3))</f>
+        <v>45.873699509677515</v>
+      </c>
+      <c r="M4">
+        <f>100*K4/L4</f>
+        <v>38.61809787535541</v>
+      </c>
+      <c r="O4">
+        <f>(B4/$T4-0.16)/0.0062</f>
+        <v>37.477952998979852</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:R4" si="0">(C4/$T4-0.16)/0.0062</f>
+        <v>37.377423004850797</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>36.180342767067984</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="0"/>
+        <v>36.166423229419344</v>
+      </c>
+      <c r="T4" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V4">
+        <f>O4/(1.0546-0.00216*$F4)</f>
+        <v>37.542195203411929</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:Y19" si="1">P4/(1.0546-0.00216*$F4)</f>
+        <v>37.441492887479853</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="1"/>
+        <v>36.242360694688735</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="1"/>
+        <v>36.22841729709814</v>
+      </c>
+      <c r="AA4">
+        <f>V4-$M4</f>
+        <v>-1.0759026719434814</v>
+      </c>
+      <c r="AB4">
+        <f>W4-$M4</f>
+        <v>-1.1766049878755567</v>
+      </c>
+      <c r="AC4">
+        <f>X4-$M4</f>
+        <v>-2.3757371806666754</v>
+      </c>
+      <c r="AD4">
+        <f>Y4-$M4</f>
+        <v>-2.3896805782572699</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>640</v>
+      </c>
+      <c r="AI4">
+        <v>234.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -16634,8 +16941,75 @@
       <c r="G5">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F5^2))</f>
+        <v>1.3570722174338199</v>
+      </c>
+      <c r="K5">
+        <f xml:space="preserve"> J5 * AI$1 * EXP((AI$2 - G5/AI$4) * G5/(G5 + AI$3))</f>
+        <v>16.113008599432074</v>
+      </c>
+      <c r="L5">
+        <f xml:space="preserve"> J5 * AI$1 * EXP((AI$2 - F5/AI$4) * F5/(F5 + AI$3))</f>
+        <v>44.403042600622086</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M33" si="2">100*K5/L5</f>
+        <v>36.28807319434982</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O33" si="3">(B5/$T5-0.16)/0.0062</f>
+        <v>33.316011242037256</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P33" si="4">(C5/$T5-0.16)/0.0062</f>
+        <v>33.529444152649681</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q33" si="5">(D5/$T5-0.16)/0.0062</f>
+        <v>32.354016528986968</v>
+      </c>
+      <c r="R5">
+        <f t="shared" ref="R5:R33" si="6">(E5/$T5-0.16)/0.0062</f>
+        <v>32.185435461909023</v>
+      </c>
+      <c r="T5" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V33" si="7">O5/(1.0546-0.00216*$F5)</f>
+        <v>33.334892124936822</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>33.548445992459811</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="1"/>
+        <v>32.372352229289639</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="1"/>
+        <v>32.203675623782331</v>
+      </c>
+      <c r="AA5">
+        <f>V5-$M5</f>
+        <v>-2.9531810694129987</v>
+      </c>
+      <c r="AB5">
+        <f>W5-$M5</f>
+        <v>-2.7396272018900092</v>
+      </c>
+      <c r="AC5">
+        <f>X5-$M5</f>
+        <v>-3.9157209650601814</v>
+      </c>
+      <c r="AD5">
+        <f>Y5-$M5</f>
+        <v>-4.0843975705674893</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -16657,8 +17031,76 @@
       <c r="G6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F6^2))</f>
+        <v>1.3562676300834551</v>
+      </c>
+      <c r="K6">
+        <f xml:space="preserve"> J6 * AI$1 * EXP((AI$2 - G6/AI$4) * G6/(G6 + AI$3))</f>
+        <v>15.56989196365766</v>
+      </c>
+      <c r="L6">
+        <f xml:space="preserve"> J6 * AI$1 * EXP((AI$2 - F6/AI$4) * F6/(F6 + AI$3))</f>
+        <v>43.670326382698306</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>35.653253028642986</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="3"/>
+        <v>32.057066392482703</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="4"/>
+        <v>32.47310590664754</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>31.38119550887664</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="6"/>
+        <v>31.183228751207125</v>
+      </c>
+      <c r="T6" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="7"/>
+        <v>32.056527842814944</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="1"/>
+        <v>32.472560367633363</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="1"/>
+        <v>31.380668313648968</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="1"/>
+        <v>31.182704881765108</v>
+      </c>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9">
+        <f>V6-$M6</f>
+        <v>-3.596725185828042</v>
+      </c>
+      <c r="AB6" s="9">
+        <f>W6-$M6</f>
+        <v>-3.1806926610096227</v>
+      </c>
+      <c r="AC6" s="9">
+        <f>X6-$M6</f>
+        <v>-4.2725847149940179</v>
+      </c>
+      <c r="AD6" s="9">
+        <f>Y6-$M6</f>
+        <v>-4.4705481468778778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -16680,8 +17122,76 @@
       <c r="G7">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F7^2))</f>
+        <v>1.3543368597302949</v>
+      </c>
+      <c r="K7">
+        <f xml:space="preserve"> J7 * AI$1 * EXP((AI$2 - G7/AI$4) * G7/(G7 + AI$3))</f>
+        <v>14.137756424348606</v>
+      </c>
+      <c r="L7">
+        <f xml:space="preserve"> J7 * AI$1 * EXP((AI$2 - F7/AI$4) * F7/(F7 + AI$3))</f>
+        <v>41.924974312457174</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>33.721562520189437</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="3"/>
+        <v>29.328837013349762</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="4"/>
+        <v>30.043373279313155</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="5"/>
+        <v>29.055086106259886</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>28.63904659209506</v>
+      </c>
+      <c r="T7" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>29.286594030120717</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="1"/>
+        <v>30.000101133438285</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="1"/>
+        <v>29.013237412615929</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="1"/>
+        <v>28.597797129515449</v>
+      </c>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9">
+        <f>V7-$M7</f>
+        <v>-4.4349684900687194</v>
+      </c>
+      <c r="AB7" s="9">
+        <f>W7-$M7</f>
+        <v>-3.7214613867511517</v>
+      </c>
+      <c r="AC7" s="9">
+        <f>X7-$M7</f>
+        <v>-4.7083251075735078</v>
+      </c>
+      <c r="AD7" s="9">
+        <f>Y7-$M7</f>
+        <v>-5.123765390673988</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -16703,8 +17213,76 @@
       <c r="G8">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F8^2))</f>
+        <v>1.3531631710780001</v>
+      </c>
+      <c r="K8">
+        <f xml:space="preserve"> J8 * AI$1 * EXP((AI$2 - G8/AI$4) * G8/(G8 + AI$3))</f>
+        <v>13.189504033860123</v>
+      </c>
+      <c r="L8">
+        <f xml:space="preserve"> J8 * AI$1 * EXP((AI$2 - F8/AI$4) * F8/(F8 + AI$3))</f>
+        <v>40.872708590555433</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>32.269708782911096</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>27.590441422564375</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="4"/>
+        <v>28.45809260266277</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="5"/>
+        <v>27.494551274318201</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="6"/>
+        <v>27.175948523693833</v>
+      </c>
+      <c r="T8" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>27.526360056353187</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="1"/>
+        <v>28.391996035891218</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="1"/>
+        <v>27.430692621894433</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="1"/>
+        <v>27.11282985578956</v>
+      </c>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9">
+        <f>V8-$M8</f>
+        <v>-4.7433487265579082</v>
+      </c>
+      <c r="AB8" s="9">
+        <f>W8-$M8</f>
+        <v>-3.8777127470198778</v>
+      </c>
+      <c r="AC8" s="9">
+        <f>X8-$M8</f>
+        <v>-4.8390161610166622</v>
+      </c>
+      <c r="AD8" s="9">
+        <f>Y8-$M8</f>
+        <v>-5.1568789271215358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>123</v>
       </c>
@@ -16726,8 +17304,76 @@
       <c r="G9">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F9^2))</f>
+        <v>1.3524010221078551</v>
+      </c>
+      <c r="K9">
+        <f xml:space="preserve"> J9 * AI$1 * EXP((AI$2 - G9/AI$4) * G9/(G9 + AI$3))</f>
+        <v>12.473552995941732</v>
+      </c>
+      <c r="L9">
+        <f xml:space="preserve"> J9 * AI$1 * EXP((AI$2 - F9/AI$4) * F9/(F9 + AI$3))</f>
+        <v>40.192836893393554</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>31.034268690777569</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>26.671751937754301</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="4"/>
+        <v>27.288851440177229</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="5"/>
+        <v>26.520183638913583</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="6"/>
+        <v>26.195394427112038</v>
+      </c>
+      <c r="T9" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="7"/>
+        <v>26.594330522736509</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="1"/>
+        <v>27.209638739877697</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="1"/>
+        <v>26.443202188701832</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="1"/>
+        <v>26.11935575862752</v>
+      </c>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9">
+        <f>V9-$M9</f>
+        <v>-4.4399381680410599</v>
+      </c>
+      <c r="AB9" s="9">
+        <f>W9-$M9</f>
+        <v>-3.8246299508998725</v>
+      </c>
+      <c r="AC9" s="9">
+        <f>X9-$M9</f>
+        <v>-4.5910665020757371</v>
+      </c>
+      <c r="AD9" s="9">
+        <f>Y9-$M9</f>
+        <v>-4.9149129321500489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>144</v>
       </c>
@@ -16749,8 +17395,76 @@
       <c r="G10">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F10^2))</f>
+        <v>1.3519813008971799</v>
+      </c>
+      <c r="K10">
+        <f xml:space="preserve"> J10 * AI$1 * EXP((AI$2 - G10/AI$4) * G10/(G10 + AI$3))</f>
+        <v>12.04427034991685</v>
+      </c>
+      <c r="L10">
+        <f xml:space="preserve"> J10 * AI$1 * EXP((AI$2 - F10/AI$4) * F10/(F10 + AI$3))</f>
+        <v>39.81955820314856</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>30.247122000877706</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>26.184568120051996</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="4"/>
+        <v>26.659379015399956</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="5"/>
+        <v>25.981961516499599</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="6"/>
+        <v>25.593761077632042</v>
+      </c>
+      <c r="T10" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="7"/>
+        <v>26.100128982766947</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="1"/>
+        <v>26.573408723497696</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="1"/>
+        <v>25.898175738350886</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="1"/>
+        <v>25.511227155538442</v>
+      </c>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9">
+        <f>V10-$M10</f>
+        <v>-4.1469930181107593</v>
+      </c>
+      <c r="AB10" s="9">
+        <f>W10-$M10</f>
+        <v>-3.6737132773800099</v>
+      </c>
+      <c r="AC10" s="9">
+        <f>X10-$M10</f>
+        <v>-4.3489462625268196</v>
+      </c>
+      <c r="AD10" s="9">
+        <f>Y10-$M10</f>
+        <v>-4.7358948453392635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>165</v>
       </c>
@@ -16772,8 +17486,76 @@
       <c r="G11">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F11^2))</f>
+        <v>1.3517585287255001</v>
+      </c>
+      <c r="K11">
+        <f xml:space="preserve"> J11 * AI$1 * EXP((AI$2 - G11/AI$4) * G11/(G11 + AI$3))</f>
+        <v>11.629819296045165</v>
+      </c>
+      <c r="L11">
+        <f xml:space="preserve"> J11 * AI$1 * EXP((AI$2 - F11/AI$4) * F11/(F11 + AI$3))</f>
+        <v>39.621758684154862</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>29.35210268870787</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>25.700477532938265</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="4"/>
+        <v>26.046919358859906</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="5"/>
+        <v>25.595307692926337</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="6"/>
+        <v>25.098844183458262</v>
+      </c>
+      <c r="T11" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="7"/>
+        <v>25.61318778895351</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="1"/>
+        <v>25.958452951202208</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="1"/>
+        <v>25.508375150413723</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="1"/>
+        <v>25.013597842012679</v>
+      </c>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9">
+        <f>V11-$M11</f>
+        <v>-3.7389148997543593</v>
+      </c>
+      <c r="AB11" s="9">
+        <f>W11-$M11</f>
+        <v>-3.3936497375056618</v>
+      </c>
+      <c r="AC11" s="9">
+        <f>X11-$M11</f>
+        <v>-3.8437275382941465</v>
+      </c>
+      <c r="AD11" s="9">
+        <f>Y11-$M11</f>
+        <v>-4.3385048466951908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>186</v>
       </c>
@@ -16795,8 +17577,75 @@
       <c r="G12">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F12^2))</f>
+        <v>1.3510122149718549</v>
+      </c>
+      <c r="K12">
+        <f xml:space="preserve"> J12 * AI$1 * EXP((AI$2 - G12/AI$4) * G12/(G12 + AI$3))</f>
+        <v>10.760123442693214</v>
+      </c>
+      <c r="L12">
+        <f xml:space="preserve"> J12 * AI$1 * EXP((AI$2 - F12/AI$4) * F12/(F12 + AI$3))</f>
+        <v>38.960717042545404</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>27.617878364361406</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>24.791067739893954</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="4"/>
+        <v>24.823546661074111</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>24.684351284587727</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="6"/>
+        <v>24.212633619828356</v>
+      </c>
+      <c r="T12" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="7"/>
+        <v>24.69251497412921</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="1"/>
+        <v>24.724864780761138</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="1"/>
+        <v>24.586222752338593</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="1"/>
+        <v>24.11638032268446</v>
+      </c>
+      <c r="AA12">
+        <f>V12-$M12</f>
+        <v>-2.9253633902321958</v>
+      </c>
+      <c r="AB12">
+        <f>W12-$M12</f>
+        <v>-2.8930135836002684</v>
+      </c>
+      <c r="AC12">
+        <f>X12-$M12</f>
+        <v>-3.0316556120228135</v>
+      </c>
+      <c r="AD12">
+        <f>Y12-$M12</f>
+        <v>-3.5014980416769461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>207</v>
       </c>
@@ -16818,8 +17667,75 @@
       <c r="G13">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F13^2))</f>
+        <v>1.3506832647410949</v>
+      </c>
+      <c r="K13">
+        <f xml:space="preserve"> J13 * AI$1 * EXP((AI$2 - G13/AI$4) * G13/(G13 + AI$3))</f>
+        <v>10.458019490373053</v>
+      </c>
+      <c r="L13">
+        <f xml:space="preserve"> J13 * AI$1 * EXP((AI$2 - F13/AI$4) * F13/(F13 + AI$3))</f>
+        <v>38.67013020380773</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>27.044179668532081</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>24.439986068089425</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="4"/>
+        <v>24.29615084572017</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="5"/>
+        <v>24.268311770422894</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="6"/>
+        <v>23.836806103315144</v>
+      </c>
+      <c r="T13" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="7"/>
+        <v>24.336546012916131</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="1"/>
+        <v>24.193319560261237</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="1"/>
+        <v>24.165598311360291</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="1"/>
+        <v>23.735918953395633</v>
+      </c>
+      <c r="AA13">
+        <f>V13-$M13</f>
+        <v>-2.7076336556159504</v>
+      </c>
+      <c r="AB13">
+        <f>W13-$M13</f>
+        <v>-2.8508601082708438</v>
+      </c>
+      <c r="AC13">
+        <f>X13-$M13</f>
+        <v>-2.8785813571717895</v>
+      </c>
+      <c r="AD13">
+        <f>Y13-$M13</f>
+        <v>-3.3082607151364485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>228</v>
       </c>
@@ -16841,8 +17757,75 @@
       <c r="G14">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F14^2))</f>
+        <v>1.3500574980392801</v>
+      </c>
+      <c r="K14">
+        <f xml:space="preserve"> J14 * AI$1 * EXP((AI$2 - G14/AI$4) * G14/(G14 + AI$3))</f>
+        <v>9.876518926912901</v>
+      </c>
+      <c r="L14">
+        <f xml:space="preserve"> J14 * AI$1 * EXP((AI$2 - F14/AI$4) * F14/(F14 + AI$3))</f>
+        <v>38.118635611652941</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>25.909948686341831</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>23.56924165740244</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>23.332609517375605</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="5"/>
+        <v>23.431592896210361</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="6"/>
+        <v>22.969154923216738</v>
+      </c>
+      <c r="T14" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="7"/>
+        <v>23.457882398082265</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="1"/>
+        <v>23.222368290626346</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="1"/>
+        <v>23.320883995705948</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="1"/>
+        <v>22.860630936037182</v>
+      </c>
+      <c r="AA14">
+        <f>V14-$M14</f>
+        <v>-2.4520662882595659</v>
+      </c>
+      <c r="AB14">
+        <f>W14-$M14</f>
+        <v>-2.6875803957154858</v>
+      </c>
+      <c r="AC14">
+        <f>X14-$M14</f>
+        <v>-2.5890646906358832</v>
+      </c>
+      <c r="AD14">
+        <f>Y14-$M14</f>
+        <v>-3.0493177503046489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>249</v>
       </c>
@@ -16864,8 +17847,75 @@
       <c r="G15">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F15^2))</f>
+        <v>1.3498143218978951</v>
+      </c>
+      <c r="K15">
+        <f xml:space="preserve"> J15 * AI$1 * EXP((AI$2 - G15/AI$4) * G15/(G15 + AI$3))</f>
+        <v>9.4609892251527441</v>
+      </c>
+      <c r="L15">
+        <f xml:space="preserve"> J15 * AI$1 * EXP((AI$2 - F15/AI$4) * F15/(F15 + AI$3))</f>
+        <v>37.904773667763408</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>24.959888451197799</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>23.134642759706097</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="4"/>
+        <v>22.973794769099609</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>22.98926092204254</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="6"/>
+        <v>22.597967252586397</v>
+      </c>
+      <c r="T15" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="7"/>
+        <v>23.020882765432436</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="1"/>
+        <v>22.860825712757446</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="1"/>
+        <v>22.876215813976195</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="1"/>
+        <v>22.48684625314187</v>
+      </c>
+      <c r="AA15">
+        <f>V15-$M15</f>
+        <v>-1.9390056857653626</v>
+      </c>
+      <c r="AB15">
+        <f>W15-$M15</f>
+        <v>-2.0990627384403524</v>
+      </c>
+      <c r="AC15">
+        <f>X15-$M15</f>
+        <v>-2.0836726372216035</v>
+      </c>
+      <c r="AD15">
+        <f>Y15-$M15</f>
+        <v>-2.4730421980559285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>270</v>
       </c>
@@ -16887,8 +17937,75 @@
       <c r="G16">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F16^2))</f>
+        <v>1.3498143218978951</v>
+      </c>
+      <c r="K16">
+        <f xml:space="preserve"> J16 * AI$1 * EXP((AI$2 - G16/AI$4) * G16/(G16 + AI$3))</f>
+        <v>9.3935442447375319</v>
+      </c>
+      <c r="L16">
+        <f xml:space="preserve"> J16 * AI$1 * EXP((AI$2 - F16/AI$4) * F16/(F16 + AI$3))</f>
+        <v>37.904773667763408</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>24.781955769139415</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>23.000087229102594</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="4"/>
+        <v>22.800573856138794</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="5"/>
+        <v>22.710870169069796</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>22.466504952571491</v>
+      </c>
+      <c r="T16" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="7"/>
+        <v>22.886988884829321</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="1"/>
+        <v>22.688456579107477</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="1"/>
+        <v>22.599193992038739</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="1"/>
+        <v>22.356030392782518</v>
+      </c>
+      <c r="AA16">
+        <f>V16-$M16</f>
+        <v>-1.8949668843100937</v>
+      </c>
+      <c r="AB16">
+        <f>W16-$M16</f>
+        <v>-2.0934991900319382</v>
+      </c>
+      <c r="AC16">
+        <f>X16-$M16</f>
+        <v>-2.1827617771006764</v>
+      </c>
+      <c r="AD16">
+        <f>Y16-$M16</f>
+        <v>-2.4259253763568971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>291</v>
       </c>
@@ -16910,8 +18027,75 @@
       <c r="G17">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F17^2))</f>
+        <v>1.3494379363963751</v>
+      </c>
+      <c r="K17">
+        <f xml:space="preserve"> J17 * AI$1 * EXP((AI$2 - G17/AI$4) * G17/(G17 + AI$3))</f>
+        <v>9.2573484060195987</v>
+      </c>
+      <c r="L17">
+        <f xml:space="preserve"> J17 * AI$1 * EXP((AI$2 - F17/AI$4) * F17/(F17 + AI$3))</f>
+        <v>37.57425220286607</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>24.63747876082407</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>22.809853547904552</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="4"/>
+        <v>22.698497246715448</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="5"/>
+        <v>22.785107703195862</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="6"/>
+        <v>22.341229113733757</v>
+      </c>
+      <c r="T17" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="7"/>
+        <v>22.690862664094041</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="1"/>
+        <v>22.580087269076412</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="1"/>
+        <v>22.666245909645681</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="1"/>
+        <v>22.224682876728192</v>
+      </c>
+      <c r="AA17">
+        <f>V17-$M17</f>
+        <v>-1.946616096730029</v>
+      </c>
+      <c r="AB17">
+        <f>W17-$M17</f>
+        <v>-2.0573914917476586</v>
+      </c>
+      <c r="AC17">
+        <f>X17-$M17</f>
+        <v>-1.9712328511783888</v>
+      </c>
+      <c r="AD17">
+        <f>Y17-$M17</f>
+        <v>-2.4127958840958783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>312</v>
       </c>
@@ -16933,8 +18117,75 @@
       <c r="G18">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F18^2))</f>
+        <v>1.3491971883215199</v>
+      </c>
+      <c r="K18">
+        <f xml:space="preserve"> J18 * AI$1 * EXP((AI$2 - G18/AI$4) * G18/(G18 + AI$3))</f>
+        <v>9.0585221595199155</v>
+      </c>
+      <c r="L18">
+        <f xml:space="preserve"> J18 * AI$1 * EXP((AI$2 - F18/AI$4) * F18/(F18 + AI$3))</f>
+        <v>37.363150563534731</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>24.244535117872928</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>22.539195871403273</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="4"/>
+        <v>22.382987726679673</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="5"/>
+        <v>22.386080957268263</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="6"/>
+        <v>22.06747820664388</v>
+      </c>
+      <c r="T18" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="7"/>
+        <v>22.417281726462079</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="1"/>
+        <v>22.261918509059999</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="1"/>
+        <v>22.264995008414498</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="1"/>
+        <v>21.948115574901337</v>
+      </c>
+      <c r="AA18">
+        <f>V18-$M18</f>
+        <v>-1.8272533914108493</v>
+      </c>
+      <c r="AB18">
+        <f>W18-$M18</f>
+        <v>-1.9826166088129291</v>
+      </c>
+      <c r="AC18">
+        <f>X18-$M18</f>
+        <v>-1.97954010945843</v>
+      </c>
+      <c r="AD18">
+        <f>Y18-$M18</f>
+        <v>-2.2964195429715915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>333</v>
       </c>
@@ -16956,8 +18207,75 @@
       <c r="G19">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F19^2))</f>
+        <v>1.348904230951375</v>
+      </c>
+      <c r="K19">
+        <f xml:space="preserve"> J19 * AI$1 * EXP((AI$2 - G19/AI$4) * G19/(G19 + AI$3))</f>
+        <v>8.9272097458609529</v>
+      </c>
+      <c r="L19">
+        <f xml:space="preserve"> J19 * AI$1 * EXP((AI$2 - F19/AI$4) * F19/(F19 + AI$3))</f>
+        <v>37.106592004922462</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>24.05828523588664</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>22.475784644337249</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="4"/>
+        <v>22.353602036088102</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="5"/>
+        <v>22.30565696196502</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="6"/>
+        <v>21.877244525445843</v>
+      </c>
+      <c r="T19" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="7"/>
+        <v>22.348932105705266</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="1"/>
+        <v>22.227439091803028</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="1"/>
+        <v>22.179764617993289</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="1"/>
+        <v>21.753770126209478</v>
+      </c>
+      <c r="AA19">
+        <f>V19-$M19</f>
+        <v>-1.7093531301813734</v>
+      </c>
+      <c r="AB19">
+        <f>W19-$M19</f>
+        <v>-1.8308461440836119</v>
+      </c>
+      <c r="AC19">
+        <f>X19-$M19</f>
+        <v>-1.8785206178933507</v>
+      </c>
+      <c r="AD19">
+        <f>Y19-$M19</f>
+        <v>-2.3045151096771619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>354</v>
       </c>
@@ -16979,22 +18297,89 @@
       <c r="G20">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F20^2))</f>
+        <v>1.3487450342414951</v>
+      </c>
+      <c r="K20">
+        <f xml:space="preserve"> J20 * AI$1 * EXP((AI$2 - G20/AI$4) * G20/(G20 + AI$3))</f>
+        <v>8.6723955492188693</v>
+      </c>
+      <c r="L20">
+        <f xml:space="preserve"> J20 * AI$1 * EXP((AI$2 - F20/AI$4) * F20/(F20 + AI$3))</f>
+        <v>36.967322416821283</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>23.459625913486931</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>22.087584205469703</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>21.546268852467126</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="5"/>
+        <v>21.772074685433918</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="6"/>
+        <v>21.600400387767387</v>
+      </c>
+      <c r="T20" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="7"/>
+        <v>21.960092691340854</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ref="W20:W33" si="8">P20/(1.0546-0.00216*$F20)</f>
+        <v>21.421901859034318</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20:X33" si="9">Q20/(1.0546-0.00216*$F20)</f>
+        <v>21.646404320510761</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ref="Y20:Y33" si="10">R20/(1.0546-0.00216*$F20)</f>
+        <v>21.475720942264974</v>
+      </c>
+      <c r="AA20">
+        <f>V20-$M20</f>
+        <v>-1.4995332221460771</v>
+      </c>
+      <c r="AB20">
+        <f>W20-$M20</f>
+        <v>-2.0377240544526138</v>
+      </c>
+      <c r="AC20">
+        <f>X20-$M20</f>
+        <v>-1.8132215929761699</v>
+      </c>
+      <c r="AD20">
+        <f>Y20-$M20</f>
+        <v>-1.983904971221957</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>375</v>
       </c>
       <c r="B21">
-        <v>1.3204285714285715</v>
+        <v>1.4595714285714285</v>
       </c>
       <c r="C21">
-        <v>1.3148571428571429</v>
+        <v>1.4532380952380952</v>
       </c>
       <c r="D21">
-        <v>1.3161428571428571</v>
+        <v>1.4542380952380953</v>
       </c>
       <c r="E21">
-        <v>1.3081904761904761</v>
+        <v>1.4456666666666667</v>
       </c>
       <c r="F21">
         <v>22.36</v>
@@ -17002,8 +18387,75 @@
       <c r="G21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F21^2))</f>
+        <v>1.3481386920719201</v>
+      </c>
+      <c r="K21">
+        <f xml:space="preserve"> J21 * AI$1 * EXP((AI$2 - G21/AI$4) * G21/(G21 + AI$3))</f>
+        <v>8.3604382575951988</v>
+      </c>
+      <c r="L21">
+        <f xml:space="preserve"> J21 * AI$1 * EXP((AI$2 - F21/AI$4) * F21/(F21 + AI$3))</f>
+        <v>36.437816948532678</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>22.944399411754187</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>21.598853772473095</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="4"/>
+        <v>21.393153938332112</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="5"/>
+        <v>21.42563285951227</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="6"/>
+        <v>21.147242106539522</v>
+      </c>
+      <c r="T21" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="7"/>
+        <v>21.463581695197284</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="8"/>
+        <v>21.259170144413957</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="9"/>
+        <v>21.29144565243238</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="10"/>
+        <v>21.014798440845933</v>
+      </c>
+      <c r="AA21">
+        <f>V21-$M21</f>
+        <v>-1.4808177165569028</v>
+      </c>
+      <c r="AB21">
+        <f>W21-$M21</f>
+        <v>-1.6852292673402296</v>
+      </c>
+      <c r="AC21">
+        <f>X21-$M21</f>
+        <v>-1.6529537593218073</v>
+      </c>
+      <c r="AD21">
+        <f>Y21-$M21</f>
+        <v>-1.929600970908254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>396</v>
       </c>
@@ -17025,8 +18477,75 @@
       <c r="G22">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F22^2))</f>
+        <v>1.3485070309375</v>
+      </c>
+      <c r="K22">
+        <f xml:space="preserve"> J22 * AI$1 * EXP((AI$2 - G22/AI$4) * G22/(G22 + AI$3))</f>
+        <v>7.7754125037346862</v>
+      </c>
+      <c r="L22">
+        <f xml:space="preserve"> J22 * AI$1 * EXP((AI$2 - F22/AI$4) * F22/(F22 + AI$3))</f>
+        <v>36.759302832579465</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>21.152230604448253</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>21.184360873602554</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="4"/>
+        <v>20.438892301753302</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="5"/>
+        <v>20.772961205320605</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="6"/>
+        <v>20.377027689981574</v>
+      </c>
+      <c r="T22" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="7"/>
+        <v>21.058012796821625</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="8"/>
+        <v>20.316990359595728</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="9"/>
+        <v>20.649066804493643</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="10"/>
+        <v>20.255494721651665</v>
+      </c>
+      <c r="AA22">
+        <f>V22-$M22</f>
+        <v>-9.4217807626627348E-2</v>
+      </c>
+      <c r="AB22">
+        <f>W22-$M22</f>
+        <v>-0.83524024485252468</v>
+      </c>
+      <c r="AC22">
+        <f>X22-$M22</f>
+        <v>-0.50316379995460991</v>
+      </c>
+      <c r="AD22">
+        <f>Y22-$M22</f>
+        <v>-0.89673588279658745</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>417</v>
       </c>
@@ -17048,8 +18567,75 @@
       <c r="G23">
         <v>-1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F23^2))</f>
+        <v>1.3479031168344551</v>
+      </c>
+      <c r="K23">
+        <f xml:space="preserve"> J23 * AI$1 * EXP((AI$2 - G23/AI$4) * G23/(G23 + AI$3))</f>
+        <v>7.659010850577384</v>
+      </c>
+      <c r="L23">
+        <f xml:space="preserve"> J23 * AI$1 * EXP((AI$2 - F23/AI$4) * F23/(F23 + AI$3))</f>
+        <v>36.232490283736738</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>21.138516261509071</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>20.941542272398543</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="4"/>
+        <v>20.299696925266922</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="5"/>
+        <v>20.639952290011397</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="6"/>
+        <v>20.281137541735411</v>
+      </c>
+      <c r="T23" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="7"/>
+        <v>20.806367464256759</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="8"/>
+        <v>20.168665141575136</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="9"/>
+        <v>20.506724204201539</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="10"/>
+        <v>20.150225556340974</v>
+      </c>
+      <c r="AA23">
+        <f>V23-$M23</f>
+        <v>-0.33214879725231228</v>
+      </c>
+      <c r="AB23">
+        <f>W23-$M23</f>
+        <v>-0.96985111993393502</v>
+      </c>
+      <c r="AC23">
+        <f>X23-$M23</f>
+        <v>-0.63179205730753196</v>
+      </c>
+      <c r="AD23">
+        <f>Y23-$M23</f>
+        <v>-0.98829070516809736</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>438</v>
       </c>
@@ -17071,8 +18657,75 @@
       <c r="G24">
         <v>-1.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F24^2))</f>
+        <v>1.34808625991062</v>
+      </c>
+      <c r="K24">
+        <f xml:space="preserve"> J24 * AI$1 * EXP((AI$2 - G24/AI$4) * G24/(G24 + AI$3))</f>
+        <v>7.4385398488719865</v>
+      </c>
+      <c r="L24">
+        <f xml:space="preserve"> J24 * AI$1 * EXP((AI$2 - F24/AI$4) * F24/(F24 + AI$3))</f>
+        <v>36.392098225907354</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="2"/>
+        <v>20.439986182430466</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>20.542515526470943</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="4"/>
+        <v>20.090903860537363</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="5"/>
+        <v>20.370841228804409</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="6"/>
+        <v>19.803233415798864</v>
+      </c>
+      <c r="T24" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="7"/>
+        <v>20.412982902166952</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="8"/>
+        <v>19.964218913003013</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="9"/>
+        <v>20.242391111765588</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="10"/>
+        <v>19.678362399357503</v>
+      </c>
+      <c r="AA24">
+        <f>V24-$M24</f>
+        <v>-2.7003280263514284E-2</v>
+      </c>
+      <c r="AB24">
+        <f>W24-$M24</f>
+        <v>-0.47576726942745395</v>
+      </c>
+      <c r="AC24">
+        <f>X24-$M24</f>
+        <v>-0.19759507066487814</v>
+      </c>
+      <c r="AD24">
+        <f>Y24-$M24</f>
+        <v>-0.76162378307296308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>459</v>
       </c>
@@ -17094,8 +18747,75 @@
       <c r="G25">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F25^2))</f>
+        <v>1.3480338746684801</v>
+      </c>
+      <c r="K25">
+        <f xml:space="preserve"> J25 * AI$1 * EXP((AI$2 - G25/AI$4) * G25/(G25 + AI$3))</f>
+        <v>7.3837710979873874</v>
+      </c>
+      <c r="L25">
+        <f xml:space="preserve"> J25 * AI$1 * EXP((AI$2 - F25/AI$4) * F25/(F25 + AI$3))</f>
+        <v>36.346431303967542</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="2"/>
+        <v>20.314982332753484</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>20.537875680588062</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="4"/>
+        <v>19.970267867582507</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="5"/>
+        <v>20.262578158203894</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="6"/>
+        <v>19.891390487573563</v>
+      </c>
+      <c r="T25" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="7"/>
+        <v>20.407496268428325</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="8"/>
+        <v>19.843491767379074</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="9"/>
+        <v>20.133946401434407</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="10"/>
+        <v>19.765115120094304</v>
+      </c>
+      <c r="AA25">
+        <f>V25-$M25</f>
+        <v>9.2513935674841008E-2</v>
+      </c>
+      <c r="AB25">
+        <f>W25-$M25</f>
+        <v>-0.4714905653744097</v>
+      </c>
+      <c r="AC25">
+        <f>X25-$M25</f>
+        <v>-0.18103593131907658</v>
+      </c>
+      <c r="AD25">
+        <f>Y25-$M25</f>
+        <v>-0.54986721265917993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>480</v>
       </c>
@@ -17117,8 +18837,75 @@
       <c r="G26">
         <v>-1.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F26^2))</f>
+        <v>1.34761648182112</v>
+      </c>
+      <c r="K26">
+        <f xml:space="preserve"> J26 * AI$1 * EXP((AI$2 - G26/AI$4) * G26/(G26 + AI$3))</f>
+        <v>7.2736200947836664</v>
+      </c>
+      <c r="L26">
+        <f xml:space="preserve"> J26 * AI$1 * EXP((AI$2 - F26/AI$4) * F26/(F26 + AI$3))</f>
+        <v>35.982954481811817</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>20.214071355536518</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>20.43270584057613</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="4"/>
+        <v>19.77694095579588</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>20.06615801582868</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="6"/>
+        <v>19.767661264030114</v>
+      </c>
+      <c r="T26" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="7"/>
+        <v>20.296024294566799</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="8"/>
+        <v>19.644646051427149</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="9"/>
+        <v>19.931928436962796</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="10"/>
+        <v>19.635428434778937</v>
+      </c>
+      <c r="AA26">
+        <f>V26-$M26</f>
+        <v>8.1952939030280447E-2</v>
+      </c>
+      <c r="AB26">
+        <f>W26-$M26</f>
+        <v>-0.56942530410936953</v>
+      </c>
+      <c r="AC26">
+        <f>X26-$M26</f>
+        <v>-0.28214291857372231</v>
+      </c>
+      <c r="AD26">
+        <f>Y26-$M26</f>
+        <v>-0.57864292075758073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>501</v>
       </c>
@@ -17140,8 +18927,75 @@
       <c r="G27">
         <v>-1.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F27^2))</f>
+        <v>1.3470732107323751</v>
+      </c>
+      <c r="K27">
+        <f xml:space="preserve"> J27 * AI$1 * EXP((AI$2 - G27/AI$4) * G27/(G27 + AI$3))</f>
+        <v>7.1642672944682975</v>
+      </c>
+      <c r="L27">
+        <f xml:space="preserve"> J27 * AI$1 * EXP((AI$2 - F27/AI$4) * F27/(F27 + AI$3))</f>
+        <v>35.510872531251628</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="2"/>
+        <v>20.174855709792336</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>20.313616462915562</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="4"/>
+        <v>19.523296047531819</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>19.693423729904055</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="6"/>
+        <v>19.708889882846986</v>
+      </c>
+      <c r="T27" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="7"/>
+        <v>20.168644248060502</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="8"/>
+        <v>19.383964113484094</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="9"/>
+        <v>19.552877645389</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="10"/>
+        <v>19.568233421016718</v>
+      </c>
+      <c r="AA27">
+        <f>V27-$M27</f>
+        <v>-6.2114617318336229E-3</v>
+      </c>
+      <c r="AB27">
+        <f>W27-$M27</f>
+        <v>-0.79089159630824213</v>
+      </c>
+      <c r="AC27">
+        <f>X27-$M27</f>
+        <v>-0.62197806440333636</v>
+      </c>
+      <c r="AD27">
+        <f>Y27-$M27</f>
+        <v>-0.6066222887756183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>522</v>
       </c>
@@ -17163,8 +19017,75 @@
       <c r="G28">
         <v>-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F28^2))</f>
+        <v>1.34684196378742</v>
+      </c>
+      <c r="K28">
+        <f xml:space="preserve"> J28 * AI$1 * EXP((AI$2 - G28/AI$4) * G28/(G28 + AI$3))</f>
+        <v>7.1103565453963888</v>
+      </c>
+      <c r="L28">
+        <f xml:space="preserve"> J28 * AI$1 * EXP((AI$2 - F28/AI$4) * F28/(F28 + AI$3))</f>
+        <v>35.310269286396881</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="2"/>
+        <v>20.136795014858812</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>20.369294613510117</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="4"/>
+        <v>19.365541287513924</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="5"/>
+        <v>19.698063575786936</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>19.747555265204308</v>
+      </c>
+      <c r="T28" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="7"/>
+        <v>20.220022320729562</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="8"/>
+        <v>19.223624799791938</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="9"/>
+        <v>19.553710265125673</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="10"/>
+        <v>19.602839264617199</v>
+      </c>
+      <c r="AA28">
+        <f>V28-$M28</f>
+        <v>8.3227305870750001E-2</v>
+      </c>
+      <c r="AB28">
+        <f>W28-$M28</f>
+        <v>-0.91317021506687368</v>
+      </c>
+      <c r="AC28">
+        <f>X28-$M28</f>
+        <v>-0.58308474973313906</v>
+      </c>
+      <c r="AD28">
+        <f>Y28-$M28</f>
+        <v>-0.53395575024161346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>624</v>
       </c>
@@ -17186,8 +19107,75 @@
       <c r="G29">
         <v>-2.2999999999999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F29^2))</f>
+        <v>1.346816328331375</v>
+      </c>
+      <c r="K29">
+        <f xml:space="preserve"> J29 * AI$1 * EXP((AI$2 - G29/AI$4) * G29/(G29 + AI$3))</f>
+        <v>6.954239106491209</v>
+      </c>
+      <c r="L29">
+        <f xml:space="preserve"> J29 * AI$1 * EXP((AI$2 - F29/AI$4) * F29/(F29 + AI$3))</f>
+        <v>35.2880433189857</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="2"/>
+        <v>19.707069172491305</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>20.120289551128934</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>19.121176071015622</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="5"/>
+        <v>19.493910356940255</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="6"/>
+        <v>19.523296047531819</v>
+      </c>
+      <c r="T29" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="7"/>
+        <v>19.972413799358485</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="8"/>
+        <v>18.980643387375494</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="9"/>
+        <v>19.35063823147442</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="10"/>
+        <v>19.379807949473914</v>
+      </c>
+      <c r="AA29">
+        <f>V29-$M29</f>
+        <v>0.2653446268671793</v>
+      </c>
+      <c r="AB29">
+        <f>W29-$M29</f>
+        <v>-0.72642578511581135</v>
+      </c>
+      <c r="AC29">
+        <f>X29-$M29</f>
+        <v>-0.35643094101688533</v>
+      </c>
+      <c r="AD29">
+        <f>Y29-$M29</f>
+        <v>-0.32726122301739125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>543</v>
       </c>
@@ -17209,8 +19197,75 @@
       <c r="G30">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F30^2))</f>
+        <v>1.346662761920695</v>
+      </c>
+      <c r="K30">
+        <f xml:space="preserve"> J30 * AI$1 * EXP((AI$2 - G30/AI$4) * G30/(G30 + AI$3))</f>
+        <v>6.8511650490449494</v>
+      </c>
+      <c r="L30">
+        <f xml:space="preserve"> J30 * AI$1 * EXP((AI$2 - F30/AI$4) * F30/(F30 + AI$3))</f>
+        <v>35.154952581241801</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="2"/>
+        <v>19.488477571437933</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>19.778487571090174</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="4"/>
+        <v>18.748441785090996</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="5"/>
+        <v>19.218612834556087</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="6"/>
+        <v>19.317596213390843</v>
+      </c>
+      <c r="T30" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="7"/>
+        <v>19.630598494273716</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="8"/>
+        <v>18.608254637950534</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="9"/>
+        <v>19.07491009188784</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="10"/>
+        <v>19.173153345348329</v>
+      </c>
+      <c r="AA30">
+        <f>V30-$M30</f>
+        <v>0.14212092283578315</v>
+      </c>
+      <c r="AB30">
+        <f>W30-$M30</f>
+        <v>-0.88022293348739922</v>
+      </c>
+      <c r="AC30">
+        <f>X30-$M30</f>
+        <v>-0.41356747955009254</v>
+      </c>
+      <c r="AD30">
+        <f>Y30-$M30</f>
+        <v>-0.31532422608960431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>564</v>
       </c>
@@ -17232,8 +19287,75 @@
       <c r="G31">
         <v>-2.6</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F31^2))</f>
+        <v>1.346662761920695</v>
+      </c>
+      <c r="K31">
+        <f xml:space="preserve"> J31 * AI$1 * EXP((AI$2 - G31/AI$4) * G31/(G31 + AI$3))</f>
+        <v>6.800527259697251</v>
+      </c>
+      <c r="L31">
+        <f xml:space="preserve"> J31 * AI$1 * EXP((AI$2 - F31/AI$4) * F31/(F31 + AI$3))</f>
+        <v>35.154952581241801</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="2"/>
+        <v>19.344435877082987</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>19.664038039312484</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="4"/>
+        <v>18.664924559199171</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="5"/>
+        <v>19.142828685135726</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="6"/>
+        <v>19.190773759258807</v>
+      </c>
+      <c r="T31" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="7"/>
+        <v>19.517004732460023</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="8"/>
+        <v>18.52536189284325</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="9"/>
+        <v>18.999692600957157</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="10"/>
+        <v>19.047279176852076</v>
+      </c>
+      <c r="AA31">
+        <f>V31-$M31</f>
+        <v>0.17256885537703681</v>
+      </c>
+      <c r="AB31">
+        <f>W31-$M31</f>
+        <v>-0.81907398423973632</v>
+      </c>
+      <c r="AC31">
+        <f>X31-$M31</f>
+        <v>-0.34474327612582911</v>
+      </c>
+      <c r="AD31">
+        <f>Y31-$M31</f>
+        <v>-0.29715670023091079</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>585</v>
       </c>
@@ -17255,8 +19377,75 @@
       <c r="G32">
         <v>-2.7</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F32^2))</f>
+        <v>1.3469960228492801</v>
+      </c>
+      <c r="K32">
+        <f xml:space="preserve"> J32 * AI$1 * EXP((AI$2 - G32/AI$4) * G32/(G32 + AI$3))</f>
+        <v>6.7518926040318794</v>
+      </c>
+      <c r="L32">
+        <f xml:space="preserve"> J32 * AI$1 * EXP((AI$2 - F32/AI$4) * F32/(F32 + AI$3))</f>
+        <v>35.44389074056361</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="2"/>
+        <v>19.049524369243994</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>19.45369835928863</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>18.437572110938092</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="5"/>
+        <v>18.75926809215105</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="6"/>
+        <v>18.952595003937677</v>
+      </c>
+      <c r="T32" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="7"/>
+        <v>19.31362053229202</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="8"/>
+        <v>18.304810977877739</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="9"/>
+        <v>18.624190562836905</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="10"/>
+        <v>18.816125409567167</v>
+      </c>
+      <c r="AA32">
+        <f>V32-$M32</f>
+        <v>0.26409616304802697</v>
+      </c>
+      <c r="AB32">
+        <f>W32-$M32</f>
+        <v>-0.74471339136625403</v>
+      </c>
+      <c r="AC32">
+        <f>X32-$M32</f>
+        <v>-0.42533380640708884</v>
+      </c>
+      <c r="AD32">
+        <f>Y32-$M32</f>
+        <v>-0.23339895967682622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>602</v>
       </c>
@@ -17278,8 +19467,1750 @@
       <c r="G33">
         <v>-2.8</v>
       </c>
+      <c r="J33">
+        <f>1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F33^2))</f>
+        <v>1.3474607336695001</v>
+      </c>
+      <c r="K33">
+        <f xml:space="preserve"> J33 * AI$1 * EXP((AI$2 - G33/AI$4) * G33/(G33 + AI$3))</f>
+        <v>6.7042179891363523</v>
+      </c>
+      <c r="L33">
+        <f xml:space="preserve"> J33 * AI$1 * EXP((AI$2 - F33/AI$4) * F33/(F33 + AI$3))</f>
+        <v>35.84749907115549</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="2"/>
+        <v>18.702052201267417</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>19.274290985150632</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="4"/>
+        <v>18.5705810262473</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="5"/>
+        <v>18.761124030504202</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="6"/>
+        <v>18.797933474508373</v>
+      </c>
+      <c r="T33" s="8">
+        <v>4.9660000000000002</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="7"/>
+        <v>19.142894159638871</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="8"/>
+        <v>18.443981536977486</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="9"/>
+        <v>18.633225570190415</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="10"/>
+        <v>18.669784076606547</v>
+      </c>
+      <c r="AA33">
+        <f>V33-$M33</f>
+        <v>0.44084195837145401</v>
+      </c>
+      <c r="AB33">
+        <f>W33-$M33</f>
+        <v>-0.25807066428993153</v>
+      </c>
+      <c r="AC33">
+        <f>X33-$M33</f>
+        <v>-6.8826631077001821E-2</v>
+      </c>
+      <c r="AD33">
+        <f>Y33-$M33</f>
+        <v>-3.2268124660870257E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T34" s="8"/>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T35" s="8"/>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T36" s="8"/>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T37" s="8"/>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T38" s="8"/>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>661</v>
+      </c>
+      <c r="C39" t="s">
+        <v>662</v>
+      </c>
+      <c r="D39" t="s">
+        <v>663</v>
+      </c>
+      <c r="E39" t="s">
+        <v>664</v>
+      </c>
+      <c r="F39" t="s">
+        <v>660</v>
+      </c>
+      <c r="G39" t="s">
+        <v>659</v>
+      </c>
+      <c r="T39" s="8"/>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>665</v>
+      </c>
+      <c r="B40">
+        <v>3.9180476190000002</v>
+      </c>
+      <c r="C40">
+        <v>3.9383809520000002</v>
+      </c>
+      <c r="D40">
+        <v>3.9623333330000001</v>
+      </c>
+      <c r="E40">
+        <v>3.9231428570000002</v>
+      </c>
+      <c r="F40">
+        <v>23.57</v>
+      </c>
+      <c r="G40">
+        <v>22.6</v>
+      </c>
+      <c r="J40">
+        <f t="shared" ref="J34:J60" si="11">1 + 10^-4 *(7.2 +AG$1* (0.032 + 5.9*10^-6 * F40^2))</f>
+        <v>1.3513981250628551</v>
+      </c>
+      <c r="K40">
+        <f t="shared" ref="K34:K60" si="12" xml:space="preserve"> J40 * AI$1 * EXP((AI$2 - G40/AI$4) * G40/(G40 + AI$3))</f>
+        <v>37.062536208070441</v>
+      </c>
+      <c r="L40">
+        <f t="shared" ref="L34:L60" si="13" xml:space="preserve"> J40 * AI$1 * EXP((AI$2 - F40/AI$4) * F40/(F40 + AI$3))</f>
+        <v>39.302225823171476</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M34:M60" si="14">100*K40/L40</f>
+        <v>94.301366988277351</v>
+      </c>
+      <c r="O40">
+        <f t="shared" ref="O34:O60" si="15">(B40/$T40-0.16)/0.0062</f>
+        <v>101.47313838807135</v>
+      </c>
+      <c r="P40">
+        <f t="shared" ref="P34:P60" si="16">(C40/$T40-0.16)/0.0062</f>
+        <v>102.13367611993634</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ref="Q34:Q60" si="17">(D40/$T40-0.16)/0.0062</f>
+        <v>102.91178030081539</v>
+      </c>
+      <c r="R40">
+        <f t="shared" ref="R34:R60" si="18">(E40/$T40-0.16)/0.0062</f>
+        <v>101.63865955235032</v>
+      </c>
+      <c r="T40" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V40">
+        <f t="shared" ref="V34:V60" si="19">O40/(1.0546-0.00216*$F40)</f>
+        <v>101.10019997042046</v>
+      </c>
+      <c r="W40">
+        <f t="shared" ref="W34:W60" si="20">P40/(1.0546-0.00216*$F40)</f>
+        <v>101.75831006576576</v>
+      </c>
+      <c r="X40">
+        <f t="shared" ref="X34:X60" si="21">Q40/(1.0546-0.00216*$F40)</f>
+        <v>102.53355452488401</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" ref="Y34:Y60" si="22">R40/(1.0546-0.00216*$F40)</f>
+        <v>101.26511280423806</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" ref="AA34:AA60" si="23">V40-$M40</f>
+        <v>6.7988329821431108</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" ref="AB34:AB60" si="24">W40-$M40</f>
+        <v>7.456943077488404</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" ref="AC34:AC60" si="25">X40-$M40</f>
+        <v>8.2321875366066593</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" ref="AD34:AD60" si="26">Y40-$M40</f>
+        <v>6.9637458159607064</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>666</v>
+      </c>
+      <c r="B41">
+        <v>3.9312380949999999</v>
+      </c>
+      <c r="C41">
+        <v>3.9475238099999999</v>
+      </c>
+      <c r="D41">
+        <v>3.9671428569999998</v>
+      </c>
+      <c r="E41">
+        <v>3.9334761899999999</v>
+      </c>
+      <c r="F41">
+        <v>23.51</v>
+      </c>
+      <c r="G41">
+        <v>22.5</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="11"/>
+        <v>1.3512324535088951</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="12"/>
+        <v>36.833595833172133</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="13"/>
+        <v>39.155535359651559</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="14"/>
+        <v>94.069958423114542</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="15"/>
+        <v>101.90163710489556</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="16"/>
+        <v>102.43068609297339</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="17"/>
+        <v>103.06801991358866</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="18"/>
+        <v>101.97434265666115</v>
+      </c>
+      <c r="T41" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="19"/>
+        <v>101.51401598625365</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="20"/>
+        <v>102.04105253796244</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="21"/>
+        <v>102.67596202021069</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="22"/>
+        <v>101.58644497516798</v>
+      </c>
+      <c r="AA41">
+        <f t="shared" si="23"/>
+        <v>7.4440575631391113</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="24"/>
+        <v>7.9710941148479009</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" si="25"/>
+        <v>8.6060035970961479</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="26"/>
+        <v>7.5164865520534363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>667</v>
+      </c>
+      <c r="B42">
+        <v>3.9414500000000001</v>
+      </c>
+      <c r="C42">
+        <v>3.9514499999999999</v>
+      </c>
+      <c r="D42">
+        <v>3.9710999999999999</v>
+      </c>
+      <c r="E42">
+        <v>3.9417499999999999</v>
+      </c>
+      <c r="F42">
+        <v>23.5</v>
+      </c>
+      <c r="G42">
+        <v>22.5</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="11"/>
+        <v>1.3512048826375</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="12"/>
+        <v>36.83284427163948</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="13"/>
+        <v>39.131135065808223</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="14"/>
+        <v>94.126695302082013</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="15"/>
+        <v>102.23337556443492</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="16"/>
+        <v>102.55823019198908</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="17"/>
+        <v>103.19656953513302</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="18"/>
+        <v>102.24312120326154</v>
+      </c>
+      <c r="T42" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="19"/>
+        <v>101.842301128103</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="20"/>
+        <v>102.16591308573983</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="21"/>
+        <v>102.80181058249623</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="22"/>
+        <v>101.8520094868321</v>
+      </c>
+      <c r="AA42">
+        <f t="shared" si="23"/>
+        <v>7.7156058260209903</v>
+      </c>
+      <c r="AB42">
+        <f t="shared" si="24"/>
+        <v>8.0392177836578185</v>
+      </c>
+      <c r="AC42">
+        <f t="shared" si="25"/>
+        <v>8.675115280414218</v>
+      </c>
+      <c r="AD42">
+        <f t="shared" si="26"/>
+        <v>7.7253141847500899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>668</v>
+      </c>
+      <c r="B43">
+        <v>3.8370000000000002</v>
+      </c>
+      <c r="C43">
+        <v>3.8589000000000002</v>
+      </c>
+      <c r="D43">
+        <v>3.86835</v>
+      </c>
+      <c r="E43">
+        <v>3.8443999999999998</v>
+      </c>
+      <c r="F43">
+        <v>24.79</v>
+      </c>
+      <c r="G43">
+        <v>23.4</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="11"/>
+        <v>1.354858366193695</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="12"/>
+        <v>39.000973317772136</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="13"/>
+        <v>42.394621703469653</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="14"/>
+        <v>91.995096903011699</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="15"/>
+        <v>98.840268979631617</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="16"/>
+        <v>99.551700613975257</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="17"/>
+        <v>99.858688237013936</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="18"/>
+        <v>99.080661404021697</v>
+      </c>
+      <c r="T43" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="19"/>
+        <v>98.736240476665415</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="20"/>
+        <v>99.446923335548931</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="21"/>
+        <v>99.753587856847972</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="22"/>
+        <v>98.976379890169426</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="23"/>
+        <v>6.7411435736537157</v>
+      </c>
+      <c r="AB43">
+        <f t="shared" si="24"/>
+        <v>7.4518264325372314</v>
+      </c>
+      <c r="AC43">
+        <f t="shared" si="25"/>
+        <v>7.7584909538362723</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" si="26"/>
+        <v>6.9812829871577264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>669</v>
+      </c>
+      <c r="B44">
+        <v>3.88447619</v>
+      </c>
+      <c r="C44">
+        <v>3.8886190479999998</v>
+      </c>
+      <c r="D44">
+        <v>3.9053809519999998</v>
+      </c>
+      <c r="E44">
+        <v>3.8801428570000001</v>
+      </c>
+      <c r="F44">
+        <v>25.34</v>
+      </c>
+      <c r="G44">
+        <v>24.1</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="11"/>
+        <v>1.3564754057186199</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="12"/>
+        <v>40.727656856186627</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="13"/>
+        <v>43.859234122647521</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="14"/>
+        <v>92.859936273160216</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="15"/>
+        <v>100.38255498164573</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="16"/>
+        <v>100.51713764090569</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="17"/>
+        <v>101.06165584900755</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="18"/>
+        <v>100.2417846538674</v>
+      </c>
+      <c r="T44" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="19"/>
+        <v>100.39604821052522</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="20"/>
+        <v>100.53064896012593</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="21"/>
+        <v>101.07524036131211</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="22"/>
+        <v>100.25525896067171</v>
+      </c>
+      <c r="AA44">
+        <f t="shared" si="23"/>
+        <v>7.536111937365007</v>
+      </c>
+      <c r="AB44">
+        <f t="shared" si="24"/>
+        <v>7.6707126869657145</v>
+      </c>
+      <c r="AC44">
+        <f t="shared" si="25"/>
+        <v>8.2153040881518962</v>
+      </c>
+      <c r="AD44">
+        <f t="shared" si="26"/>
+        <v>7.395322687511495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>670</v>
+      </c>
+      <c r="B45">
+        <v>3.8976666670000002</v>
+      </c>
+      <c r="C45">
+        <v>3.895380952</v>
+      </c>
+      <c r="D45">
+        <v>3.9144761899999998</v>
+      </c>
+      <c r="E45">
+        <v>3.8954761900000001</v>
+      </c>
+      <c r="F45">
+        <v>25.9</v>
+      </c>
+      <c r="G45">
+        <v>24.8</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="11"/>
+        <v>1.3581583021495001</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="12"/>
+        <v>42.523260694444282</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="13"/>
+        <v>45.39725951319889</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="14"/>
+        <v>93.669223980537822</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="15"/>
+        <v>100.81105373095541</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="16"/>
+        <v>100.73680122145339</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="17"/>
+        <v>101.35711886430822</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="18"/>
+        <v>100.73989507195532</v>
+      </c>
+      <c r="T45" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="19"/>
+        <v>100.94672613087531</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="20"/>
+        <v>100.87237369169503</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="21"/>
+        <v>101.49352616347193</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="22"/>
+        <v>100.87547170592809</v>
+      </c>
+      <c r="AA45">
+        <f t="shared" si="23"/>
+        <v>7.277502150337483</v>
+      </c>
+      <c r="AB45">
+        <f t="shared" si="24"/>
+        <v>7.2031497111572094</v>
+      </c>
+      <c r="AC45">
+        <f t="shared" si="25"/>
+        <v>7.8243021829341046</v>
+      </c>
+      <c r="AD45">
+        <f t="shared" si="26"/>
+        <v>7.2062477253902699</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>671</v>
+      </c>
+      <c r="B46">
+        <v>3.9045238100000002</v>
+      </c>
+      <c r="C46">
+        <v>3.8984761899999998</v>
+      </c>
+      <c r="D46">
+        <v>3.9176190480000002</v>
+      </c>
+      <c r="E46">
+        <v>3.9002857139999998</v>
+      </c>
+      <c r="F46">
+        <v>26.19</v>
+      </c>
+      <c r="G46">
+        <v>25.1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="11"/>
+        <v>1.3590442590530949</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="12"/>
+        <v>43.319116637238679</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="13"/>
+        <v>46.21272280437941</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="14"/>
+        <v>93.738507511471454</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="15"/>
+        <v>101.03381119449047</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="16"/>
+        <v>100.83735146022154</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="17"/>
+        <v>101.45921606081279</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="18"/>
+        <v>100.89613468472858</v>
+      </c>
+      <c r="T46" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="19"/>
+        <v>101.23328125186916</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="20"/>
+        <v>101.0364336490837</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="21"/>
+        <v>101.65952599082512</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="22"/>
+        <v>101.09533292873135</v>
+      </c>
+      <c r="AA46">
+        <f t="shared" si="23"/>
+        <v>7.4947737403977044</v>
+      </c>
+      <c r="AB46">
+        <f t="shared" si="24"/>
+        <v>7.2979261376122508</v>
+      </c>
+      <c r="AC46">
+        <f t="shared" si="25"/>
+        <v>7.9210184793536627</v>
+      </c>
+      <c r="AD46">
+        <f t="shared" si="26"/>
+        <v>7.3568254172598984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>672</v>
+      </c>
+      <c r="B47">
+        <v>3.9049047620000001</v>
+      </c>
+      <c r="C47">
+        <v>3.8948095239999998</v>
+      </c>
+      <c r="D47">
+        <v>3.9122857139999998</v>
+      </c>
+      <c r="E47">
+        <v>3.8992380949999998</v>
+      </c>
+      <c r="F47">
+        <v>26.38</v>
+      </c>
+      <c r="G47">
+        <v>25.2</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="11"/>
+        <v>1.3596300623603801</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="12"/>
+        <v>43.596613990561885</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="13"/>
+        <v>46.754137437177313</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="14"/>
+        <v>93.246536842096305</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="15"/>
+        <v>101.04618659649807</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="16"/>
+        <v>100.71823811844199</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="17"/>
+        <v>101.28596023779357</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="18"/>
+        <v>100.86210229672221</v>
+      </c>
+      <c r="T47" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="19"/>
+        <v>101.28733147527441</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="20"/>
+        <v>100.95860035416518</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="21"/>
+        <v>101.52767733198557</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="22"/>
+        <v>101.10280786167931</v>
+      </c>
+      <c r="AA47">
+        <f t="shared" si="23"/>
+        <v>8.0407946331781091</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" si="24"/>
+        <v>7.7120635120688803</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" si="25"/>
+        <v>8.2811404898892675</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="26"/>
+        <v>7.856271019583005</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>673</v>
+      </c>
+      <c r="B48">
+        <v>3.9030476190000001</v>
+      </c>
+      <c r="C48">
+        <v>3.894238095</v>
+      </c>
+      <c r="D48">
+        <v>3.906952381</v>
+      </c>
+      <c r="E48">
+        <v>3.8998571430000002</v>
+      </c>
+      <c r="F48">
+        <v>26.42</v>
+      </c>
+      <c r="G48">
+        <v>25.3</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="11"/>
+        <v>1.35975392894278</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="12"/>
+        <v>43.860782144210837</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="13"/>
+        <v>46.868846475854973</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="14"/>
+        <v>93.58195356227985</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="15"/>
+        <v>100.98585644674009</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="16"/>
+        <v>100.69967498294514</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="17"/>
+        <v>101.11270444725986</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="18"/>
+        <v>100.88221235747004</v>
+      </c>
+      <c r="T48" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="19"/>
+        <v>101.23562498069245</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="20"/>
+        <v>100.94873570367324</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="21"/>
+        <v>101.36278671464223</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="22"/>
+        <v>101.13172454827554</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="23"/>
+        <v>7.6536714184125998</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="24"/>
+        <v>7.3667821413933865</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" si="25"/>
+        <v>7.7808331523623764</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="26"/>
+        <v>7.5497709859956927</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>674</v>
+      </c>
+      <c r="B49">
+        <v>3.9005714290000002</v>
+      </c>
+      <c r="C49">
+        <v>3.8888571430000001</v>
+      </c>
+      <c r="D49">
+        <v>3.900047619</v>
+      </c>
+      <c r="E49">
+        <v>3.8961904760000001</v>
+      </c>
+      <c r="F49">
+        <v>26.47</v>
+      </c>
+      <c r="G49">
+        <v>25.3</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="11"/>
+        <v>1.3599090260910551</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="12"/>
+        <v>43.865785021633641</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="13"/>
+        <v>47.012590016214858</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="14"/>
+        <v>93.306463239962156</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="15"/>
+        <v>100.90541626871975</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="16"/>
+        <v>100.52487226716045</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="17"/>
+        <v>100.88840005847385</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="18"/>
+        <v>100.76309898320503</v>
+      </c>
+      <c r="T49" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="19"/>
+        <v>101.16593879430283</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="20"/>
+        <v>100.78441228567853</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="21"/>
+        <v>101.14887865077533</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="22"/>
+        <v>101.02325406707857</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="23"/>
+        <v>7.8594755543406762</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="24"/>
+        <v>7.4779490457163718</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" si="25"/>
+        <v>7.8424154108131745</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="26"/>
+        <v>7.7167908271164123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>675</v>
+      </c>
+      <c r="B50">
+        <v>3.8814761899999999</v>
+      </c>
+      <c r="C50">
+        <v>3.8700476190000002</v>
+      </c>
+      <c r="D50">
+        <v>3.8875714289999999</v>
+      </c>
+      <c r="E50">
+        <v>3.8738571429999999</v>
+      </c>
+      <c r="F50">
+        <v>25.5</v>
+      </c>
+      <c r="G50">
+        <v>24.1</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="11"/>
+        <v>1.3569524797375001</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="12"/>
+        <v>40.741980821703471</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="13"/>
+        <v>44.293796450947909</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="14"/>
+        <v>91.981234588509906</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="15"/>
+        <v>100.28509859337946</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="16"/>
+        <v>99.913836175811326</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="17"/>
+        <v>100.48310525289934</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="18"/>
+        <v>100.0375903258292</v>
+      </c>
+      <c r="T50" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="19"/>
+        <v>100.33325855748706</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="20"/>
+        <v>99.961817848378558</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="21"/>
+        <v>100.53136030584615</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="22"/>
+        <v>100.08563142891508</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="23"/>
+        <v>8.35202396897715</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="24"/>
+        <v>7.9805832598686521</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" si="25"/>
+        <v>8.5501257173362433</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="26"/>
+        <v>8.1043968404051725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>676</v>
+      </c>
+      <c r="B51">
+        <v>2.6484761899999998</v>
+      </c>
+      <c r="C51">
+        <v>2.639857143</v>
+      </c>
+      <c r="D51">
+        <v>2.6510952379999999</v>
+      </c>
+      <c r="E51">
+        <v>2.636952381</v>
+      </c>
+      <c r="F51">
+        <v>25.4</v>
+      </c>
+      <c r="G51">
+        <v>15.8</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="11"/>
+        <v>1.3566539565819999</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="12"/>
+        <v>24.352313041485889</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="13"/>
+        <v>44.021741870063323</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="14"/>
+        <v>55.31883112068882</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="15"/>
+        <v>60.230523015950361</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="16"/>
+        <v>59.950529285644663</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="17"/>
+        <v>60.315604002209</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="18"/>
+        <v>59.856166747880323</v>
+      </c>
+      <c r="T51" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="19"/>
+        <v>60.246428072961628</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="20"/>
+        <v>59.96636040479153</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="21"/>
+        <v>60.331531526532004</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="22"/>
+        <v>59.871972948738794</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="23"/>
+        <v>4.9275969522728076</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="24"/>
+        <v>4.6475292841027098</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" si="25"/>
+        <v>5.0127004058431837</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="26"/>
+        <v>4.5531418280499736</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>677</v>
+      </c>
+      <c r="B52">
+        <v>2.6244285710000002</v>
+      </c>
+      <c r="C52">
+        <v>2.6182380950000002</v>
+      </c>
+      <c r="D52">
+        <v>2.629380952</v>
+      </c>
+      <c r="E52">
+        <v>2.615190476</v>
+      </c>
+      <c r="F52">
+        <v>25</v>
+      </c>
+      <c r="G52">
+        <v>16</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="11"/>
+        <v>1.3554715937499999</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="12"/>
+        <v>24.644242010680603</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="13"/>
+        <v>42.948543232439221</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="14"/>
+        <v>57.380856615566657</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="15"/>
+        <v>59.449324984569401</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="16"/>
+        <v>59.2482245070331</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="17"/>
+        <v>59.610205373095532</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="18"/>
+        <v>59.149221193515899</v>
+      </c>
+      <c r="T52" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="19"/>
+        <v>59.413676778502307</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="20"/>
+        <v>59.212696888899764</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="21"/>
+        <v>59.574460696677527</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="22"/>
+        <v>59.113752941750853</v>
+      </c>
+      <c r="AA52">
+        <f t="shared" si="23"/>
+        <v>2.0328201629356499</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="24"/>
+        <v>1.8318402733331069</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" si="25"/>
+        <v>2.1936040811108697</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="26"/>
+        <v>1.7328963261841963</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>677</v>
+      </c>
+      <c r="B53">
+        <v>2.6244285710000002</v>
+      </c>
+      <c r="C53">
+        <v>2.6182380950000002</v>
+      </c>
+      <c r="D53">
+        <v>2.629380952</v>
+      </c>
+      <c r="E53">
+        <v>2.615190476</v>
+      </c>
+      <c r="F53">
+        <v>25.4</v>
+      </c>
+      <c r="G53">
+        <v>15.8</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="11"/>
+        <v>1.3566539565819999</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="12"/>
+        <v>24.352313041485889</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="13"/>
+        <v>44.021741870063323</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="14"/>
+        <v>55.31883112068882</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="15"/>
+        <v>59.449324984569401</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="16"/>
+        <v>59.2482245070331</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="17"/>
+        <v>59.610205373095532</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="18"/>
+        <v>59.149221193515899</v>
+      </c>
+      <c r="T53" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="19"/>
+        <v>59.465023750839627</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="20"/>
+        <v>59.263870168757656</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="21"/>
+        <v>59.625946623004005</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="22"/>
+        <v>59.164840711463725</v>
+      </c>
+      <c r="AA53">
+        <f t="shared" si="23"/>
+        <v>4.1461926301508072</v>
+      </c>
+      <c r="AB53">
+        <f t="shared" si="24"/>
+        <v>3.9450390480688355</v>
+      </c>
+      <c r="AC53">
+        <f t="shared" si="25"/>
+        <v>4.3071155023151846</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="26"/>
+        <v>3.846009590774905</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>678</v>
+      </c>
+      <c r="B54">
+        <v>3.020714286</v>
+      </c>
+      <c r="C54">
+        <v>2.265571429</v>
+      </c>
+      <c r="D54">
+        <v>2.2822380949999999</v>
+      </c>
+      <c r="E54">
+        <v>2.2737142860000001</v>
+      </c>
+      <c r="F54">
+        <v>28.49</v>
+      </c>
+      <c r="G54">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="11"/>
+        <v>1.3664201856008951</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="12"/>
+        <v>25.811848604749201</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="13"/>
+        <v>53.16354352278384</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="14"/>
+        <v>48.551783599013191</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="15"/>
+        <v>72.322849819705695</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="16"/>
+        <v>47.791684663613033</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="17"/>
+        <v>48.333109021212998</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="18"/>
+        <v>48.056209141409227</v>
+      </c>
+      <c r="T54" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="19"/>
+        <v>72.828160730115528</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="20"/>
+        <v>48.125599321948442</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="21"/>
+        <v>48.670806545347233</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="22"/>
+        <v>48.391971999933567</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="23"/>
+        <v>24.276377131102336</v>
+      </c>
+      <c r="AB54">
+        <f t="shared" si="24"/>
+        <v>-0.42618427706474904</v>
+      </c>
+      <c r="AC54">
+        <f t="shared" si="25"/>
+        <v>0.11902294633404154</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="26"/>
+        <v>-0.1598115990796245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>679</v>
+      </c>
+      <c r="B55">
+        <v>3.0677142860000002</v>
+      </c>
+      <c r="C55">
+        <v>3.191142857</v>
+      </c>
+      <c r="D55">
+        <v>3.213285714</v>
+      </c>
+      <c r="E55">
+        <v>3.2043333330000001</v>
+      </c>
+      <c r="F55">
+        <v>29.19</v>
+      </c>
+      <c r="G55">
+        <v>24.8</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="11"/>
+        <v>1.368788195606095</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="12"/>
+        <v>42.856077369712231</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="13"/>
+        <v>55.458821167264425</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="14"/>
+        <v>77.275492820984823</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="15"/>
+        <v>73.849666569210285</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="16"/>
+        <v>77.859300815385112</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="17"/>
+        <v>78.578621771757142</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="18"/>
+        <v>78.287799532209334</v>
+      </c>
+      <c r="T55" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="19"/>
+        <v>74.479044285036565</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="20"/>
+        <v>78.522850309641711</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="21"/>
+        <v>79.248301619764803</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="22"/>
+        <v>78.955000871574498</v>
+      </c>
+      <c r="AA55">
+        <f t="shared" si="23"/>
+        <v>-2.796448535948258</v>
+      </c>
+      <c r="AB55">
+        <f t="shared" si="24"/>
+        <v>1.2473574886568883</v>
+      </c>
+      <c r="AC55">
+        <f t="shared" si="25"/>
+        <v>1.9728087987799796</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="26"/>
+        <v>1.6795080505896749</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>680</v>
+      </c>
+      <c r="B56">
+        <v>3.073761905</v>
+      </c>
+      <c r="C56">
+        <v>3.1964285710000002</v>
+      </c>
+      <c r="D56">
+        <v>3.2199523810000001</v>
+      </c>
+      <c r="E56">
+        <v>3.209666667</v>
+      </c>
+      <c r="F56">
+        <v>29.22</v>
+      </c>
+      <c r="G56">
+        <v>24.8</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="11"/>
+        <v>1.3688909661611799</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="12"/>
+        <v>42.85929506465888</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="13"/>
+        <v>55.559159062498267</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="14"/>
+        <v>77.141727462877256</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="15"/>
+        <v>74.046126270993724</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="16"/>
+        <v>78.031009680667907</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="17"/>
+        <v>78.795191534288406</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="18"/>
+        <v>78.461055355228538</v>
+      </c>
+      <c r="T56" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="19"/>
+        <v>74.682058939273432</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="20"/>
+        <v>78.701165848097631</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="21"/>
+        <v>79.471910748695706</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="22"/>
+        <v>79.134904897410976</v>
+      </c>
+      <c r="AA56">
+        <f t="shared" si="23"/>
+        <v>-2.459668523603824</v>
+      </c>
+      <c r="AB56">
+        <f t="shared" si="24"/>
+        <v>1.5594383852203748</v>
+      </c>
+      <c r="AC56">
+        <f t="shared" si="25"/>
+        <v>2.3301832858184497</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="26"/>
+        <v>1.9931774345337203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>681</v>
+      </c>
+      <c r="B57">
+        <v>2.723142857</v>
+      </c>
+      <c r="C57">
+        <v>2.8349523809999999</v>
+      </c>
+      <c r="D57">
+        <v>2.850333333</v>
+      </c>
+      <c r="E57">
+        <v>2.8380000000000001</v>
+      </c>
+      <c r="F57">
+        <v>29.29</v>
+      </c>
+      <c r="G57">
+        <v>22.2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="11"/>
+        <v>1.3691311746656951</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="12"/>
+        <v>36.646598253216155</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="13"/>
+        <v>55.793918301128201</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="14"/>
+        <v>65.682066019147342</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="15"/>
+        <v>62.656104245849988</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="16"/>
+        <v>66.288288373452872</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="17"/>
+        <v>66.787945716791739</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="18"/>
+        <v>66.387291686970087</v>
+      </c>
+      <c r="T57" s="8">
+        <v>4.9649999999999999</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="19"/>
+        <v>63.203854127258467</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="20"/>
+        <v>66.8677914008492</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="21"/>
+        <v>67.371816830168726</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="22"/>
+        <v>66.967660217478851</v>
+      </c>
+      <c r="AA57">
+        <f t="shared" si="23"/>
+        <v>-2.4782118918888756</v>
+      </c>
+      <c r="AB57">
+        <f t="shared" si="24"/>
+        <v>1.1857253817018574</v>
+      </c>
+      <c r="AC57">
+        <f t="shared" si="25"/>
+        <v>1.6897508110213835</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="26"/>
+        <v>1.2855941983315091</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T60" s="10"/>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T61" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="O1:Y1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>